--- a/Epsitec.Cresus/App.Aider/Samples/EERV Région 2/2050/supergroup.xlsx
+++ b/Epsitec.Cresus/App.Aider/Samples/EERV Région 2/2050/supergroup.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="18">
   <si>
     <t>_Id</t>
   </si>
@@ -68,9 +68,6 @@
   </si>
   <si>
     <t>Couples mixtes</t>
-  </si>
-  <si>
-    <t>ACTIVITES NON CLASSEES</t>
   </si>
 </sst>
 </file>
@@ -114,7 +111,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
@@ -126,6 +123,9 @@
       <alignment vertical="top"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
   </cellXfs>
@@ -432,7 +432,7 @@
   <dimension ref="A1:D16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K4" sqref="K4"/>
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="21.7109375" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -452,8 +452,8 @@
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="B2" s="2">
-        <v>4040000000</v>
+      <c r="B2" s="5">
+        <v>2050000000</v>
       </c>
       <c r="C2" s="3">
         <v>4000000545</v>
@@ -463,8 +463,8 @@
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="B3" s="2">
-        <v>4040000000</v>
+      <c r="B3" s="5">
+        <v>2050000000</v>
       </c>
       <c r="C3" s="3">
         <v>4000000548</v>
@@ -474,8 +474,8 @@
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="B4" s="2">
-        <v>4040000000</v>
+      <c r="B4" s="5">
+        <v>2050000000</v>
       </c>
       <c r="C4" s="3">
         <v>4000000559</v>
@@ -485,8 +485,8 @@
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="B5" s="2">
-        <v>4040000000</v>
+      <c r="B5" s="5">
+        <v>2050000000</v>
       </c>
       <c r="C5" s="3">
         <v>4000000560</v>
@@ -496,8 +496,8 @@
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="B6" s="2">
-        <v>4040000000</v>
+      <c r="B6" s="5">
+        <v>2050000000</v>
       </c>
       <c r="C6" s="3">
         <v>4000000561</v>
@@ -507,8 +507,8 @@
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="B7" s="2">
-        <v>4040000000</v>
+      <c r="B7" s="5">
+        <v>2050000000</v>
       </c>
       <c r="C7" s="3">
         <v>4000000562</v>
@@ -518,8 +518,8 @@
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="B8" s="2">
-        <v>4040000000</v>
+      <c r="B8" s="5">
+        <v>2050000000</v>
       </c>
       <c r="C8" s="3">
         <v>4000000563</v>
@@ -529,8 +529,8 @@
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="B9" s="2">
-        <v>4040000000</v>
+      <c r="B9" s="5">
+        <v>2050000000</v>
       </c>
       <c r="C9" s="3">
         <v>4000000658</v>
@@ -540,8 +540,8 @@
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="B10" s="2">
-        <v>4040000000</v>
+      <c r="B10" s="5">
+        <v>2050000000</v>
       </c>
       <c r="C10" s="3">
         <v>4000000660</v>
@@ -551,8 +551,8 @@
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="B11" s="2">
-        <v>4040000000</v>
+      <c r="B11" s="5">
+        <v>2050000000</v>
       </c>
       <c r="C11" s="3">
         <v>4000000662</v>
@@ -562,8 +562,8 @@
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="B12" s="2">
-        <v>4040000000</v>
+      <c r="B12" s="5">
+        <v>2050000000</v>
       </c>
       <c r="C12" s="3">
         <v>4000000675</v>
@@ -573,8 +573,8 @@
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="B13" s="2">
-        <v>4040000000</v>
+      <c r="B13" s="5">
+        <v>2050000000</v>
       </c>
       <c r="C13" s="3">
         <v>4040000145</v>
@@ -584,8 +584,8 @@
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="B14" s="2">
-        <v>4040000000</v>
+      <c r="B14" s="5">
+        <v>2050000000</v>
       </c>
       <c r="C14" s="3">
         <v>4040000146</v>
@@ -595,8 +595,8 @@
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="B15" s="2">
-        <v>4040000000</v>
+      <c r="B15" s="5">
+        <v>2050000000</v>
       </c>
       <c r="C15" s="3">
         <v>4040000147</v>
@@ -606,15 +606,9 @@
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="B16" s="2">
-        <v>4040000000</v>
-      </c>
-      <c r="C16" s="3">
-        <v>100000000558</v>
-      </c>
-      <c r="D16" s="4" t="s">
-        <v>18</v>
-      </c>
+      <c r="B16" s="2"/>
+      <c r="C16" s="3"/>
+      <c r="D16" s="4"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Epsitec.Cresus/App.Aider/Samples/EERV Région 2/2050/supergroup.xlsx
+++ b/Epsitec.Cresus/App.Aider/Samples/EERV Région 2/2050/supergroup.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="270" yWindow="555" windowWidth="27495" windowHeight="11445"/>
+    <workbookView xWindow="390" yWindow="555" windowWidth="23655" windowHeight="11445"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="19">
   <si>
     <t>_Id</t>
   </si>
@@ -34,37 +34,40 @@
     <t>Autorités d'Eglise</t>
   </si>
   <si>
+    <t>KT/Jeunesse</t>
+  </si>
+  <si>
+    <t>Bénévoles, Responsables</t>
+  </si>
+  <si>
     <t>Autorités, relations publiques</t>
   </si>
   <si>
-    <t>Bénévoles, Responsables</t>
-  </si>
-  <si>
     <t>Finances</t>
   </si>
   <si>
     <t>Information/Journal</t>
   </si>
   <si>
-    <t>KT/Jeunesse</t>
+    <t>Ministres</t>
+  </si>
+  <si>
+    <t>ACTIVITES NON CLASSEES</t>
+  </si>
+  <si>
+    <t>Formation adultes</t>
   </si>
   <si>
     <t>Enfance</t>
   </si>
   <si>
+    <t>REGISTRES PAROISSIAUX</t>
+  </si>
+  <si>
     <t>Comité visites paroissiales</t>
   </si>
   <si>
     <t>Mission, Solidarité</t>
-  </si>
-  <si>
-    <t>Ministres</t>
-  </si>
-  <si>
-    <t>Formation adultes</t>
-  </si>
-  <si>
-    <t>REGISTRES PAROISSIAUX</t>
   </si>
   <si>
     <t>Couples mixtes</t>
@@ -111,7 +114,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
@@ -123,9 +126,6 @@
       <alignment vertical="top"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
   </cellXfs>
@@ -432,7 +432,7 @@
   <dimension ref="A1:D16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+      <selection activeCell="H8" sqref="H8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="21.7109375" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -452,163 +452,169 @@
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="B2" s="5">
+      <c r="B2" s="2">
         <v>2050000000</v>
       </c>
       <c r="C2" s="3">
-        <v>4000000545</v>
+        <v>305020100</v>
       </c>
       <c r="D2" s="4" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="B3" s="5">
+      <c r="B3" s="2">
         <v>2050000000</v>
       </c>
       <c r="C3" s="3">
-        <v>4000000548</v>
+        <v>305020200</v>
       </c>
       <c r="D3" s="4" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="B4" s="5">
+      <c r="B4" s="2">
         <v>2050000000</v>
       </c>
       <c r="C4" s="3">
-        <v>4000000559</v>
+        <v>305020300</v>
       </c>
       <c r="D4" s="4" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="B5" s="5">
+      <c r="B5" s="2">
         <v>2050000000</v>
       </c>
       <c r="C5" s="3">
-        <v>4000000560</v>
+        <v>305020400</v>
       </c>
       <c r="D5" s="4" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="B6" s="5">
+      <c r="B6" s="2">
         <v>2050000000</v>
       </c>
       <c r="C6" s="3">
-        <v>4000000561</v>
+        <v>305020500</v>
       </c>
       <c r="D6" s="4" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="B7" s="5">
+      <c r="B7" s="2">
         <v>2050000000</v>
       </c>
       <c r="C7" s="3">
-        <v>4000000562</v>
+        <v>305020600</v>
       </c>
       <c r="D7" s="4" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="B8" s="5">
+      <c r="B8" s="2">
         <v>2050000000</v>
       </c>
       <c r="C8" s="3">
-        <v>4000000563</v>
+        <v>305020700</v>
       </c>
       <c r="D8" s="4" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="B9" s="5">
+      <c r="B9" s="2">
         <v>2050000000</v>
       </c>
       <c r="C9" s="3">
-        <v>4000000658</v>
+        <v>305020800</v>
       </c>
       <c r="D9" s="4" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="B10" s="5">
+      <c r="B10" s="2">
         <v>2050000000</v>
       </c>
       <c r="C10" s="3">
-        <v>4000000660</v>
+        <v>305020900</v>
       </c>
       <c r="D10" s="4" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="B11" s="5">
+      <c r="B11" s="2">
         <v>2050000000</v>
       </c>
       <c r="C11" s="3">
-        <v>4000000662</v>
+        <v>305021000</v>
       </c>
       <c r="D11" s="4" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="B12" s="5">
+      <c r="B12" s="2">
         <v>2050000000</v>
       </c>
       <c r="C12" s="3">
-        <v>4000000675</v>
+        <v>305021100</v>
       </c>
       <c r="D12" s="4" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="B13" s="5">
+      <c r="B13" s="2">
         <v>2050000000</v>
       </c>
       <c r="C13" s="3">
-        <v>4040000145</v>
+        <v>305021200</v>
       </c>
       <c r="D13" s="4" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="B14" s="5">
+      <c r="B14" s="2">
         <v>2050000000</v>
       </c>
       <c r="C14" s="3">
-        <v>4040000146</v>
+        <v>305021300</v>
       </c>
       <c r="D14" s="4" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="B15" s="5">
+      <c r="B15" s="2">
         <v>2050000000</v>
       </c>
       <c r="C15" s="3">
-        <v>4040000147</v>
+        <v>305021400</v>
       </c>
       <c r="D15" s="4" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="B16" s="2"/>
-      <c r="C16" s="3"/>
-      <c r="D16" s="4"/>
+      <c r="B16" s="2">
+        <v>2050000000</v>
+      </c>
+      <c r="C16" s="3">
+        <v>305021500</v>
+      </c>
+      <c r="D16" s="4" t="s">
+        <v>18</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Epsitec.Cresus/App.Aider/Samples/EERV Région 2/2050/supergroup.xlsx
+++ b/Epsitec.Cresus/App.Aider/Samples/EERV Région 2/2050/supergroup.xlsx
@@ -9,7 +9,7 @@
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="145621"/>
 </workbook>
 </file>
 
@@ -114,13 +114,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="top"/>
@@ -432,7 +429,7 @@
   <dimension ref="A1:D16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H8" sqref="H8"/>
+      <selection activeCell="K9" sqref="K9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="21.7109375" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -455,10 +452,10 @@
       <c r="B2" s="2">
         <v>2050000000</v>
       </c>
-      <c r="C2" s="3">
-        <v>305020100</v>
-      </c>
-      <c r="D2" s="4" t="s">
+      <c r="C2">
+        <v>403110100</v>
+      </c>
+      <c r="D2" s="3" t="s">
         <v>4</v>
       </c>
     </row>
@@ -466,10 +463,10 @@
       <c r="B3" s="2">
         <v>2050000000</v>
       </c>
-      <c r="C3" s="3">
-        <v>305020200</v>
-      </c>
-      <c r="D3" s="4" t="s">
+      <c r="C3">
+        <v>403110200</v>
+      </c>
+      <c r="D3" s="3" t="s">
         <v>5</v>
       </c>
     </row>
@@ -477,10 +474,10 @@
       <c r="B4" s="2">
         <v>2050000000</v>
       </c>
-      <c r="C4" s="3">
-        <v>305020300</v>
-      </c>
-      <c r="D4" s="4" t="s">
+      <c r="C4">
+        <v>403110300</v>
+      </c>
+      <c r="D4" s="3" t="s">
         <v>6</v>
       </c>
     </row>
@@ -488,10 +485,10 @@
       <c r="B5" s="2">
         <v>2050000000</v>
       </c>
-      <c r="C5" s="3">
-        <v>305020400</v>
-      </c>
-      <c r="D5" s="4" t="s">
+      <c r="C5">
+        <v>403110400</v>
+      </c>
+      <c r="D5" s="3" t="s">
         <v>7</v>
       </c>
     </row>
@@ -499,10 +496,10 @@
       <c r="B6" s="2">
         <v>2050000000</v>
       </c>
-      <c r="C6" s="3">
-        <v>305020500</v>
-      </c>
-      <c r="D6" s="4" t="s">
+      <c r="C6">
+        <v>403110500</v>
+      </c>
+      <c r="D6" s="3" t="s">
         <v>8</v>
       </c>
     </row>
@@ -510,10 +507,10 @@
       <c r="B7" s="2">
         <v>2050000000</v>
       </c>
-      <c r="C7" s="3">
-        <v>305020600</v>
-      </c>
-      <c r="D7" s="4" t="s">
+      <c r="C7">
+        <v>403110600</v>
+      </c>
+      <c r="D7" s="3" t="s">
         <v>9</v>
       </c>
     </row>
@@ -521,10 +518,10 @@
       <c r="B8" s="2">
         <v>2050000000</v>
       </c>
-      <c r="C8" s="3">
-        <v>305020700</v>
-      </c>
-      <c r="D8" s="4" t="s">
+      <c r="C8">
+        <v>403110700</v>
+      </c>
+      <c r="D8" s="3" t="s">
         <v>10</v>
       </c>
     </row>
@@ -532,10 +529,10 @@
       <c r="B9" s="2">
         <v>2050000000</v>
       </c>
-      <c r="C9" s="3">
-        <v>305020800</v>
-      </c>
-      <c r="D9" s="4" t="s">
+      <c r="C9">
+        <v>403110800</v>
+      </c>
+      <c r="D9" s="3" t="s">
         <v>11</v>
       </c>
     </row>
@@ -543,10 +540,10 @@
       <c r="B10" s="2">
         <v>2050000000</v>
       </c>
-      <c r="C10" s="3">
-        <v>305020900</v>
-      </c>
-      <c r="D10" s="4" t="s">
+      <c r="C10">
+        <v>403110900</v>
+      </c>
+      <c r="D10" s="3" t="s">
         <v>12</v>
       </c>
     </row>
@@ -554,10 +551,10 @@
       <c r="B11" s="2">
         <v>2050000000</v>
       </c>
-      <c r="C11" s="3">
-        <v>305021000</v>
-      </c>
-      <c r="D11" s="4" t="s">
+      <c r="C11">
+        <v>403111000</v>
+      </c>
+      <c r="D11" s="3" t="s">
         <v>13</v>
       </c>
     </row>
@@ -565,10 +562,10 @@
       <c r="B12" s="2">
         <v>2050000000</v>
       </c>
-      <c r="C12" s="3">
-        <v>305021100</v>
-      </c>
-      <c r="D12" s="4" t="s">
+      <c r="C12">
+        <v>403111100</v>
+      </c>
+      <c r="D12" s="3" t="s">
         <v>14</v>
       </c>
     </row>
@@ -576,10 +573,10 @@
       <c r="B13" s="2">
         <v>2050000000</v>
       </c>
-      <c r="C13" s="3">
-        <v>305021200</v>
-      </c>
-      <c r="D13" s="4" t="s">
+      <c r="C13">
+        <v>403111200</v>
+      </c>
+      <c r="D13" s="3" t="s">
         <v>15</v>
       </c>
     </row>
@@ -587,10 +584,10 @@
       <c r="B14" s="2">
         <v>2050000000</v>
       </c>
-      <c r="C14" s="3">
-        <v>305021300</v>
-      </c>
-      <c r="D14" s="4" t="s">
+      <c r="C14">
+        <v>403111300</v>
+      </c>
+      <c r="D14" s="3" t="s">
         <v>16</v>
       </c>
     </row>
@@ -598,10 +595,10 @@
       <c r="B15" s="2">
         <v>2050000000</v>
       </c>
-      <c r="C15" s="3">
-        <v>305021400</v>
-      </c>
-      <c r="D15" s="4" t="s">
+      <c r="C15">
+        <v>403111400</v>
+      </c>
+      <c r="D15" s="3" t="s">
         <v>17</v>
       </c>
     </row>
@@ -609,10 +606,10 @@
       <c r="B16" s="2">
         <v>2050000000</v>
       </c>
-      <c r="C16" s="3">
-        <v>305021500</v>
-      </c>
-      <c r="D16" s="4" t="s">
+      <c r="C16">
+        <v>403111500</v>
+      </c>
+      <c r="D16" s="3" t="s">
         <v>18</v>
       </c>
     </row>
